--- a/warm-up-conditional-logic-solution.xlsx
+++ b/warm-up-conditional-logic-solution.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
